--- a/teaching/aux_files/loan_example.xlsx
+++ b/teaching/aux_files/loan_example.xlsx
@@ -5,27 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mio101_pitt_edu/Documents/teaching/intro_to_finance/BUSFIN1030 25&amp;#x3a;26/slides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueloliveira/Documents/GitHub/miguelcfoliveira.github.io/teaching/aux_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{45BFFEA9-1F89-2740-9822-BF3E7D7A75AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD69821F-D305-7D47-8BF5-616EA3F19285}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C0106D-F0C9-8840-8A86-CEBE4AAB066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="1320" windowWidth="30120" windowHeight="17440" xr2:uid="{61CA6DA5-5B67-9C41-A564-8BA62B65478C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$10:$NB$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$11:$NB$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$12:$NB$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$8:$NB$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$9:$NB$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -9093,7 +9082,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -9232,6 +9221,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="221508160"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -10229,23 +10219,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B421EE-55EC-4949-9D71-C35481B6EF7D}">
   <dimension ref="B2:NB13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="312" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="362" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="363" max="366" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="367" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="312" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="362" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="363" max="366" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="367" max="16364" width="10.83203125" style="1"/>
+    <col min="16365" max="16365" width="10.83203125" style="1" customWidth="1"/>
+    <col min="16366" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:366" x14ac:dyDescent="0.2">
